--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Bangladesh/Pandémie_de_Covid-19_au_Bangladesh.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_au_Bangladesh/Pandémie_de_Covid-19_au_Bangladesh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Bangladesh</t>
+          <t>Pandémie_de_Covid-19_au_Bangladesh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Bangladesh démarre officiellement le 8 mars 2020. À la date du 13 mai 2022, le bilan est de 29 127 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Bangladesh</t>
+          <t>Pandémie_de_Covid-19_au_Bangladesh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Évolution
-Trois premiers cas de Covid-19 ont été confirmés le 8 mars 2020. Le 18 mars le premier décès est recensé[4].
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois premiers cas de Covid-19 ont été confirmés le 8 mars 2020. Le 18 mars le premier décès est recensé.
 L'Institue of Epidemology Disease Control and Research est la première institution médicale du pays à avoir détecté et signalé la présence de premiers cas.
-Le 23 mars alors que le pays cumule 33 cas de la maladie, le gouvernement recommande le respect de la distanciation sociale[5]. Le 26 mars il impose un confinement jusqu'au 4 avril[6],[7]. Cependant la situation sanitaire se détériore et il est prolongé jusqu'au 30 mai[8].
-Le 22 avril, la Première ministre du Bangladesh, Sheikh Hasina, est reconnue par le magazine Forbes pour ses mesures ayant permis d'enrayer la propagation du Covid-19[9].
-Le 6 mai 2020, 11 personnes sont accusées et arrêtées par le gouvernement pour avoir « diffusé des rumeurs sur la situation du Coronavirus » sur le réseau social Facebook[10], parmi elles des journalistes et caricaturistes ayant accusées le gouvernement pour son inaction et le manque d'équipements médicaux[11].
-Le 8 juillet 2021, 11 651 cas sont recensés, ce qui constitue le record de cas positifs journalier[12].
-Statistiques
-Le 10 mai 2021, on décompte depuis le début de l'épidémie au Bangladesh 775 000 cas confirmés, pour près de 12 000 décès[13]. Soit environ un cas de Covid-19 pour 210 habitants.
-Au 7 juillet, ce sont 872 935 cas qui sont comptabilisés par les autorités bangladaises et 13 868 morts[14]. Soit environ un cas pour 186 habitants.
-Les hôpitaux publics et privés disposent au total de 1 169 lits de réanimation[15]. Soit environ un lit pour 139 000 personnes.
+Le 23 mars alors que le pays cumule 33 cas de la maladie, le gouvernement recommande le respect de la distanciation sociale. Le 26 mars il impose un confinement jusqu'au 4 avril,. Cependant la situation sanitaire se détériore et il est prolongé jusqu'au 30 mai.
+Le 22 avril, la Première ministre du Bangladesh, Sheikh Hasina, est reconnue par le magazine Forbes pour ses mesures ayant permis d'enrayer la propagation du Covid-19.
+Le 6 mai 2020, 11 personnes sont accusées et arrêtées par le gouvernement pour avoir « diffusé des rumeurs sur la situation du Coronavirus » sur le réseau social Facebook, parmi elles des journalistes et caricaturistes ayant accusées le gouvernement pour son inaction et le manque d'équipements médicaux.
+Le 8 juillet 2021, 11 651 cas sont recensés, ce qui constitue le record de cas positifs journalier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Bangladesh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Bangladesh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Épidémie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 10 mai 2021, on décompte depuis le début de l'épidémie au Bangladesh 775 000 cas confirmés, pour près de 12 000 décès. Soit environ un cas de Covid-19 pour 210 habitants.
+Au 7 juillet, ce sont 872 935 cas qui sont comptabilisés par les autorités bangladaises et 13 868 morts. Soit environ un cas pour 186 habitants.
+Les hôpitaux publics et privés disposent au total de 1 169 lits de réanimation. Soit environ un lit pour 139 000 personnes.
 Au 8 juillet 2021, l'épidémie au Bangladesh représente 0,49 % des cas dans le monde.
 La catégorie d'âge la plus touchée est celle des 75-84 ans, suivie par celle des 35-44 ans, puis celle des 45-54 ans.
 Les régions les plus touchés au 7 juillet 2021 restent Dhaka, où se trouve la capitale Dacca, avec 367 639 cas confirmés ainsi que Chittagong avec 59 240 cas.
@@ -532,35 +584,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Bangladesh</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Bangladesh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Bangladesh</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Vaccin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 24 février 2021, 2 673 000 Bangladais avaient reçus une dose de vaccin[16], soit 1,65 % de la population totale.
-Au mois de mars 2021 l'Inde a fait don de près de 9 millions de doses de vaccin Serum au Bangladesh[17].
-Le 12 mai 2021, 500 000 doses du vaccin Sinopharm sont données au Bangladesh par la république populaire de Chine dans sa démarche de diplomatie du vaccin[18].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 24 février 2021, 2 673 000 Bangladais avaient reçus une dose de vaccin, soit 1,65 % de la population totale.
+Au mois de mars 2021 l'Inde a fait don de près de 9 millions de doses de vaccin Serum au Bangladesh.
+Le 12 mai 2021, 500 000 doses du vaccin Sinopharm sont données au Bangladesh par la république populaire de Chine dans sa démarche de diplomatie du vaccin.
 </t>
         </is>
       </c>
